--- a/data/1.xlsx
+++ b/data/1.xlsx
@@ -854,7 +854,7 @@
   <dimension ref="A1:B63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:A44"/>
+      <selection sqref="A1:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,230 +864,230 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+      <c r="A1" s="3">
+        <v>32296276185</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>52468802760</v>
+        <v>14602099245</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>89642912868</v>
+        <v>96482849496</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>29057445841</v>
+        <v>33564421425</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>74468717841</v>
+        <v>54694335443</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>64517981337</v>
+        <v>60499835651</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>49160139011</v>
+        <v>89044988332</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>87898669005</v>
+        <v>11171134309</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>90336336329</v>
+        <v>35859427031</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>26491464968</v>
+        <v>55686798359</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>53688685294</v>
+        <v>80176560118</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>13786060971</v>
+        <v>18215292419</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>16625652974</v>
+        <v>58358748605</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>41476454046</v>
+        <v>90807848054</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>80294423137</v>
+        <v>98358813676</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>82955344013</v>
+        <v>19857687651</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>13491375751</v>
+        <v>51505878750</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>93981141007</v>
-      </c>
+      <c r="A18" s="2"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
+      <c r="A19" s="2"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
+      <c r="A20" s="2"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
+      <c r="A21" s="2"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
+      <c r="A22" s="2"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
+      <c r="A23" s="2"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
+      <c r="A24" s="2"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
+      <c r="A25" s="2"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
+      <c r="A26" s="2"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
+      <c r="A27" s="2"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
+      <c r="A28" s="2"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
+      <c r="A29" s="2"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
+      <c r="A30" s="2"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
+      <c r="A31" s="2"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
+      <c r="A32" s="2"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
+      <c r="A33" s="2"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
+      <c r="A34" s="2"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
+      <c r="A35" s="2"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
+      <c r="A36" s="2"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
+      <c r="A37" s="2"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
+      <c r="A38" s="2"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
+      <c r="A39" s="2"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
+      <c r="A40" s="2"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
+      <c r="A41" s="2"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
+      <c r="A42" s="1"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
+      <c r="A43" s="1"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
+      <c r="A44" s="1"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
+      <c r="A45" s="1"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
+      <c r="A46" s="1"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
+      <c r="A47" s="1"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
+      <c r="A48" s="1"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
+      <c r="A49" s="1"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
+      <c r="A50" s="1"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
+      <c r="A51" s="1"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
+      <c r="A52" s="1"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
+      <c r="A53" s="1"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
+      <c r="A54" s="1"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
+      <c r="A55" s="1"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
+      <c r="A56" s="1"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
+      <c r="A57" s="1"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
+      <c r="A58" s="1"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2"/>
+      <c r="A59" s="1"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
+      <c r="A60" s="1"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
+      <c r="A61" s="1"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
+      <c r="A62" s="1"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
+      <c r="A63" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
